--- a/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/xinjiang/xinjiangCaseStatistics_20200214.xlsx
@@ -10290,14 +10290,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10364,14 +10364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -10381,50 +10375,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10445,32 +10395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10485,10 +10411,61 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10499,8 +10476,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10511,6 +10497,14 @@
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10535,7 +10529,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10547,145 +10691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10697,19 +10703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10729,17 +10723,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10751,21 +10763,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10788,24 +10785,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -10813,15 +10792,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -10832,10 +10826,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10844,137 +10838,137 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11006,17 +11000,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -11025,7 +11019,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11360,8 +11353,8 @@
   <sheetPr/>
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9090909090909" defaultRowHeight="15.6"/>
@@ -11570,7 +11563,7 @@
         <v>46</v>
       </c>
       <c r="W2" s="13"/>
-      <c r="Z2" s="20"/>
+      <c r="Z2" s="13"/>
       <c r="AA2" s="12" t="s">
         <v>47</v>
       </c>
@@ -11633,7 +11626,7 @@
         <v>46</v>
       </c>
       <c r="W3" s="13"/>
-      <c r="Z3" s="20"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="12" t="s">
         <v>47</v>
       </c>
@@ -11984,7 +11977,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -12171,7 +12164,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -12389,14 +12382,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F2:F15">
       <formula1>[1]中国各省市区县数据!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
-      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
@@ -12404,11 +12394,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F16:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
-      <formula1>"手动,自动"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+      <formula1>"未核查,已核查"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
